--- a/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTables.xlsx
+++ b/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22100" yWindow="1380" windowWidth="20480" windowHeight="12400" tabRatio="705" firstSheet="27" activeTab="29"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="705" firstSheet="25" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="655">
   <si>
     <t>Table</t>
   </si>
@@ -1940,9 +1940,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>98</t>
-  </si>
-  <si>
     <t>Covered by another agency</t>
   </si>
   <si>
@@ -2013,6 +2010,9 @@
   </si>
   <si>
     <t>Blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -2067,9 +2067,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2097,7 +2109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="28">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2105,6 +2117,12 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2112,6 +2130,12 @@
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
@@ -2658,10 +2682,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -2683,7 +2707,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3086,7 +3110,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="1">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B29">
         <v>99</v>
@@ -3100,16 +3124,16 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B30" t="s">
+        <v>652</v>
+      </c>
+      <c r="C30" t="s">
         <v>653</v>
       </c>
-      <c r="C30" t="s">
-        <v>654</v>
-      </c>
       <c r="D30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -3128,7 +3152,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3227,10 +3251,10 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>525</v>
+        <v>629</v>
       </c>
       <c r="C9" t="s">
         <v>274</v>
@@ -3238,13 +3262,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C10" t="s">
         <v>653</v>
-      </c>
-      <c r="C10" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -3263,7 +3287,7 @@
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4023,7 +4047,7 @@
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1">
       <c r="A69">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>345</v>
@@ -4034,13 +4058,13 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>98</v>
+        <v>99998</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4059,7 +4083,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4257,7 +4281,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B18" t="s">
         <v>255</v>
@@ -4279,13 +4303,13 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>98</v>
+        <v>99998</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="C20" t="s">
-        <v>275</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4301,10 +4325,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4446,7 +4470,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>345</v>
@@ -4457,24 +4481,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>98</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>630</v>
+        <v>99998</v>
+      </c>
+      <c r="B14" t="s">
+        <v>652</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>99999</v>
-      </c>
-      <c r="B15" t="s">
         <v>653</v>
-      </c>
-      <c r="C15" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -4493,7 +4506,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4602,7 +4615,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B10" t="s">
         <v>255</v>
@@ -4613,13 +4626,13 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C11" t="s">
         <v>653</v>
-      </c>
-      <c r="C11" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -4638,7 +4651,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4780,7 +4793,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>345</v>
@@ -4791,13 +4804,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C14" t="s">
         <v>653</v>
-      </c>
-      <c r="C14" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -4816,7 +4829,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4914,7 +4927,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>525</v>
@@ -4925,13 +4938,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B10" t="s">
+        <v>652</v>
+      </c>
+      <c r="C10" t="s">
         <v>653</v>
-      </c>
-      <c r="C10" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4963,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4990,7 +5003,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B4" t="s">
         <v>255</v>
@@ -5001,13 +5014,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" t="s">
         <v>653</v>
-      </c>
-      <c r="C5" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5026,7 +5039,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5102,7 +5115,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B7" t="s">
         <v>255</v>
@@ -5113,13 +5126,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C8" t="s">
         <v>653</v>
-      </c>
-      <c r="C8" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5141,7 +5154,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5217,7 +5230,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>525</v>
@@ -5228,13 +5241,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C8" t="s">
         <v>653</v>
-      </c>
-      <c r="C8" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5253,7 +5266,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5293,7 +5306,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B4" t="s">
         <v>255</v>
@@ -5304,13 +5317,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" t="s">
         <v>653</v>
-      </c>
-      <c r="C5" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5329,7 +5342,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5369,7 +5382,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B4" t="s">
         <v>255</v>
@@ -5380,13 +5393,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" t="s">
         <v>653</v>
-      </c>
-      <c r="C5" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5402,10 +5415,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5613,7 +5626,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>345</v>
@@ -5624,24 +5637,13 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>98</v>
+        <v>99998</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="C20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>99999</v>
-      </c>
-      <c r="B21" t="s">
         <v>653</v>
-      </c>
-      <c r="C21" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5660,7 +5662,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5758,29 +5760,29 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>525</v>
+        <v>99998</v>
+      </c>
+      <c r="B9" t="s">
+        <v>652</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
         <v>99999</v>
       </c>
-      <c r="B10" t="s">
-        <v>653</v>
+      <c r="B10" s="6" t="s">
+        <v>525</v>
       </c>
       <c r="C10" t="s">
-        <v>654</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5794,7 +5796,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5903,29 +5905,29 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>525</v>
+        <v>99998</v>
+      </c>
+      <c r="B10" t="s">
+        <v>652</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
         <v>99999</v>
       </c>
-      <c r="B11" t="s">
-        <v>653</v>
+      <c r="B11" s="6" t="s">
+        <v>525</v>
       </c>
       <c r="C11" t="s">
-        <v>654</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5936,10 +5938,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6235,7 +6237,7 @@
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B27" t="s">
         <v>459</v>
@@ -6246,24 +6248,13 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>98</v>
+        <v>99998</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>99999</v>
-      </c>
-      <c r="B29" t="s">
         <v>653</v>
-      </c>
-      <c r="C29" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6284,8 +6275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6337,31 +6328,31 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>525</v>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="1">
+        <v>99998</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>99999</v>
       </c>
-      <c r="B6" t="s">
-        <v>653</v>
+      <c r="B6" s="6" t="s">
+        <v>525</v>
       </c>
       <c r="C6" t="s">
-        <v>654</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6375,7 +6366,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6429,13 +6420,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" t="s">
         <v>653</v>
-      </c>
-      <c r="C5" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6454,7 +6445,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6547,7 +6538,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
@@ -6563,29 +6554,29 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>999</v>
+        <v>99998</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>345</v>
+        <v>652</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
         <v>99999</v>
       </c>
-      <c r="B11" t="s">
-        <v>653</v>
+      <c r="B11" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="C11" t="s">
-        <v>654</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6599,7 +6590,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6642,29 +6633,29 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>9</v>
+        <v>99998</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>525</v>
+        <v>652</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>99999</v>
       </c>
-      <c r="B5" t="s">
-        <v>653</v>
+      <c r="B5" s="3">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>654</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6678,7 +6669,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6765,7 +6756,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>525</v>
@@ -6776,13 +6767,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B9" t="s">
+        <v>652</v>
+      </c>
+      <c r="C9" t="s">
         <v>653</v>
-      </c>
-      <c r="C9" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6798,10 +6789,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6826,10 +6817,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6837,10 +6828,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6848,10 +6839,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6859,10 +6850,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6870,10 +6861,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6881,10 +6872,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6892,10 +6883,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6903,10 +6894,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6917,17 +6908,28 @@
         <v>629</v>
       </c>
       <c r="C10" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>99</v>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1">
+      <c r="A11" s="1">
+        <v>99998</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>99999</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6946,7 +6948,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6990,7 +6992,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D2" t="s">
         <v>494</v>
@@ -6999,7 +7001,7 @@
         <v>496</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G2" t="s">
         <v>521</v>
@@ -7013,7 +7015,7 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>494</v>
@@ -7022,7 +7024,7 @@
         <v>273</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>521</v>
@@ -7036,7 +7038,7 @@
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>494</v>
@@ -7045,7 +7047,7 @@
         <v>273</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>522</v>
@@ -8410,7 +8412,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>999</v>
+        <v>99999</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>519</v>
@@ -8433,25 +8435,25 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C65" t="s">
         <v>653</v>
       </c>
-      <c r="C65" t="s">
-        <v>654</v>
-      </c>
       <c r="D65" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E65" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F65" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G65" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -8470,10 +8472,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8538,13 +8540,24 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>525</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>99998</v>
+      </c>
+      <c r="B7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C7" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -8562,8 +8575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9080,7 +9093,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>345</v>
@@ -9091,13 +9104,13 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C48" t="s">
         <v>653</v>
-      </c>
-      <c r="C48" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -9116,7 +9129,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9159,7 +9172,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>525</v>
@@ -9170,13 +9183,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" t="s">
         <v>653</v>
-      </c>
-      <c r="C5" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -9195,7 +9208,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9337,7 +9350,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>525</v>
@@ -9348,13 +9361,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C14" t="s">
         <v>653</v>
-      </c>
-      <c r="C14" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -9373,7 +9386,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9559,7 +9572,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17">
-        <v>999</v>
+        <v>99999</v>
       </c>
       <c r="B17" s="2">
         <v>95</v>
@@ -9570,13 +9583,13 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18">
-        <v>990</v>
-      </c>
-      <c r="B18" s="2">
-        <v>99</v>
+        <v>99998</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>652</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTables.xlsx
+++ b/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="705" firstSheet="25" activeTab="25"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="25440" windowHeight="15000" tabRatio="705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="ArresteeWasArmedWithType" sheetId="28" r:id="rId28"/>
     <sheet name="DispositionOfArresteeUnder18Typ" sheetId="29" r:id="rId29"/>
     <sheet name="AgencyType" sheetId="30" r:id="rId30"/>
+    <sheet name="CargoTheftIndicatorType" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="664">
   <si>
     <t>Table</t>
   </si>
@@ -1604,9 +1605,6 @@
     <t>Human Trafficking Offenses</t>
   </si>
   <si>
-    <t>Group B Offenses</t>
-  </si>
-  <si>
     <t>999</t>
   </si>
   <si>
@@ -2013,6 +2011,36 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>CargoTheftIndicatorType</t>
+  </si>
+  <si>
+    <t>Group B Offenses (Property)</t>
+  </si>
+  <si>
+    <t>Group B Offenses (Society)</t>
+  </si>
+  <si>
+    <t>Group B Offenses (Not a Crime)</t>
+  </si>
+  <si>
+    <t>Group B Offenses (Other)</t>
+  </si>
+  <si>
+    <t>Group B Offenses (Person)</t>
+  </si>
+  <si>
+    <t>Prostitution Offenses (Society)</t>
   </si>
 </sst>
 </file>
@@ -2436,19 +2464,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2456,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2464,7 +2492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2472,7 +2500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2480,7 +2508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2488,7 +2516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2496,7 +2524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2504,7 +2532,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2512,7 +2540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2520,7 +2548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2528,7 +2556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2536,7 +2564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2544,7 +2572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2552,7 +2580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2560,7 +2588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2568,7 +2596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2576,7 +2604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>491</v>
       </c>
@@ -2584,7 +2612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2592,7 +2620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2600,7 +2628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2608,7 +2636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2616,7 +2644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2624,7 +2652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2632,7 +2660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2640,7 +2668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2648,7 +2676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2656,7 +2684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2664,7 +2692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2672,7 +2700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2680,12 +2708,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B30" t="s">
-        <v>639</v>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>657</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -2710,13 +2746,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="49.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -2727,10 +2763,10 @@
         <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -2741,10 +2777,10 @@
         <v>276</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -2755,10 +2791,10 @@
         <v>277</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -2769,10 +2805,10 @@
         <v>278</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -2783,10 +2819,10 @@
         <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -2797,10 +2833,10 @@
         <v>280</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -2811,10 +2847,10 @@
         <v>281</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>21</v>
       </c>
@@ -2825,10 +2861,10 @@
         <v>282</v>
       </c>
       <c r="D8" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>22</v>
       </c>
@@ -2839,10 +2875,10 @@
         <v>283</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>23</v>
       </c>
@@ -2853,10 +2889,10 @@
         <v>284</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>24</v>
       </c>
@@ -2867,10 +2903,10 @@
         <v>285</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>25</v>
       </c>
@@ -2881,10 +2917,10 @@
         <v>286</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>26</v>
       </c>
@@ -2895,10 +2931,10 @@
         <v>287</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>27</v>
       </c>
@@ -2909,10 +2945,10 @@
         <v>288</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>32</v>
       </c>
@@ -2923,10 +2959,10 @@
         <v>289</v>
       </c>
       <c r="D15" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>33</v>
       </c>
@@ -2937,10 +2973,10 @@
         <v>290</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41</v>
       </c>
@@ -2951,10 +2987,10 @@
         <v>291</v>
       </c>
       <c r="D17" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42</v>
       </c>
@@ -2965,10 +3001,10 @@
         <v>292</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43</v>
       </c>
@@ -2979,10 +3015,10 @@
         <v>293</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44</v>
       </c>
@@ -2993,10 +3029,10 @@
         <v>294</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45</v>
       </c>
@@ -3007,10 +3043,10 @@
         <v>295</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>51</v>
       </c>
@@ -3021,10 +3057,10 @@
         <v>296</v>
       </c>
       <c r="D22" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>52</v>
       </c>
@@ -3035,10 +3071,10 @@
         <v>297</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>61</v>
       </c>
@@ -3049,10 +3085,10 @@
         <v>298</v>
       </c>
       <c r="D24" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>62</v>
       </c>
@@ -3063,10 +3099,10 @@
         <v>299</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>71</v>
       </c>
@@ -3077,10 +3113,10 @@
         <v>300</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>72</v>
       </c>
@@ -3091,10 +3127,10 @@
         <v>301</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>88</v>
       </c>
@@ -3108,7 +3144,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>99999</v>
       </c>
@@ -3122,18 +3158,18 @@
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>99998</v>
       </c>
       <c r="B30" t="s">
+        <v>651</v>
+      </c>
+      <c r="C30" t="s">
         <v>652</v>
       </c>
-      <c r="C30" t="s">
-        <v>653</v>
-      </c>
       <c r="D30" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -3155,13 +3191,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="3"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -3172,7 +3208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3183,7 +3219,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3191,10 +3227,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3205,7 +3241,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3216,7 +3252,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3224,10 +3260,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3235,10 +3271,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3246,29 +3282,29 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>99999</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99998</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" t="s">
         <v>652</v>
-      </c>
-      <c r="C10" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -3290,14 +3326,14 @@
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="3" width="58.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="3"/>
+    <col min="3" max="3" width="58.125" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -3308,7 +3344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3319,7 +3355,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3330,7 +3366,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3341,7 +3377,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3352,7 +3388,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3360,10 +3396,10 @@
         <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3371,10 +3407,10 @@
         <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3382,10 +3418,10 @@
         <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3393,10 +3429,10 @@
         <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3404,10 +3440,10 @@
         <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3418,7 +3454,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3426,10 +3462,10 @@
         <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3437,10 +3473,10 @@
         <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3448,10 +3484,10 @@
         <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3459,10 +3495,10 @@
         <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3470,10 +3506,10 @@
         <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3481,10 +3517,10 @@
         <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3492,10 +3528,10 @@
         <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3503,10 +3539,10 @@
         <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3514,10 +3550,10 @@
         <v>189</v>
       </c>
       <c r="C20" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3525,10 +3561,10 @@
         <v>191</v>
       </c>
       <c r="C21" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3536,10 +3572,10 @@
         <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3547,10 +3583,10 @@
         <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3558,10 +3594,10 @@
         <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3569,10 +3605,10 @@
         <v>199</v>
       </c>
       <c r="C25" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3580,10 +3616,10 @@
         <v>201</v>
       </c>
       <c r="C26" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3591,10 +3627,10 @@
         <v>309</v>
       </c>
       <c r="C27" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3602,10 +3638,10 @@
         <v>310</v>
       </c>
       <c r="C28" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3613,10 +3649,10 @@
         <v>311</v>
       </c>
       <c r="C29" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3624,10 +3660,10 @@
         <v>312</v>
       </c>
       <c r="C30" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3635,10 +3671,10 @@
         <v>313</v>
       </c>
       <c r="C31" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3646,10 +3682,10 @@
         <v>314</v>
       </c>
       <c r="C32" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3657,10 +3693,10 @@
         <v>315</v>
       </c>
       <c r="C33" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3668,10 +3704,10 @@
         <v>316</v>
       </c>
       <c r="C34" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3679,10 +3715,10 @@
         <v>317</v>
       </c>
       <c r="C35" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3690,10 +3726,10 @@
         <v>318</v>
       </c>
       <c r="C36" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3701,10 +3737,10 @@
         <v>319</v>
       </c>
       <c r="C37" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3712,10 +3748,10 @@
         <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3723,10 +3759,10 @@
         <v>205</v>
       </c>
       <c r="C39" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3734,10 +3770,10 @@
         <v>207</v>
       </c>
       <c r="C40" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3745,10 +3781,10 @@
         <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3756,10 +3792,10 @@
         <v>213</v>
       </c>
       <c r="C42" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3767,10 +3803,10 @@
         <v>320</v>
       </c>
       <c r="C43" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3778,10 +3814,10 @@
         <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3792,7 +3828,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3800,10 +3836,10 @@
         <v>219</v>
       </c>
       <c r="C46" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3814,7 +3850,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1">
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3822,10 +3858,10 @@
         <v>223</v>
       </c>
       <c r="C48" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3836,7 +3872,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1">
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>59</v>
       </c>
@@ -3844,10 +3880,10 @@
         <v>323</v>
       </c>
       <c r="C50" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>64</v>
       </c>
@@ -3858,7 +3894,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1">
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>65</v>
       </c>
@@ -3866,10 +3902,10 @@
         <v>326</v>
       </c>
       <c r="C52" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>66</v>
       </c>
@@ -3877,10 +3913,10 @@
         <v>327</v>
       </c>
       <c r="C53" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>67</v>
       </c>
@@ -3888,10 +3924,10 @@
         <v>328</v>
       </c>
       <c r="C54" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>68</v>
       </c>
@@ -3899,10 +3935,10 @@
         <v>329</v>
       </c>
       <c r="C55" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>69</v>
       </c>
@@ -3910,10 +3946,10 @@
         <v>330</v>
       </c>
       <c r="C56" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>70</v>
       </c>
@@ -3921,10 +3957,10 @@
         <v>331</v>
       </c>
       <c r="C57" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>71</v>
       </c>
@@ -3932,10 +3968,10 @@
         <v>332</v>
       </c>
       <c r="C58" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>72</v>
       </c>
@@ -3943,10 +3979,10 @@
         <v>333</v>
       </c>
       <c r="C59" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>73</v>
       </c>
@@ -3957,7 +3993,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1">
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>74</v>
       </c>
@@ -3965,10 +4001,10 @@
         <v>336</v>
       </c>
       <c r="C61" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>75</v>
       </c>
@@ -3976,10 +4012,10 @@
         <v>337</v>
       </c>
       <c r="C62" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>76</v>
       </c>
@@ -3987,10 +4023,10 @@
         <v>338</v>
       </c>
       <c r="C63" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>77</v>
       </c>
@@ -4001,7 +4037,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1">
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>78</v>
       </c>
@@ -4012,7 +4048,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1">
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>79</v>
       </c>
@@ -4020,10 +4056,10 @@
         <v>342</v>
       </c>
       <c r="C66" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>80</v>
       </c>
@@ -4031,10 +4067,10 @@
         <v>343</v>
       </c>
       <c r="C67" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>88</v>
       </c>
@@ -4042,10 +4078,10 @@
         <v>344</v>
       </c>
       <c r="C68" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>99999</v>
       </c>
@@ -4056,15 +4092,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>99998</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C70" t="s">
         <v>652</v>
-      </c>
-      <c r="C70" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4086,13 +4122,13 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4103,7 +4139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4111,10 +4147,10 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4122,10 +4158,10 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4133,10 +4169,10 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4144,10 +4180,10 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4155,10 +4191,10 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4166,10 +4202,10 @@
         <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4177,10 +4213,10 @@
         <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4188,10 +4224,10 @@
         <v>346</v>
       </c>
       <c r="C9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4202,7 +4238,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4213,7 +4249,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4221,10 +4257,10 @@
         <v>349</v>
       </c>
       <c r="C12" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4232,10 +4268,10 @@
         <v>350</v>
       </c>
       <c r="C13" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4243,10 +4279,10 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4254,10 +4290,10 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4265,10 +4301,10 @@
         <v>249</v>
       </c>
       <c r="C16" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4276,10 +4312,10 @@
         <v>251</v>
       </c>
       <c r="C17" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>99999</v>
       </c>
@@ -4290,7 +4326,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>93</v>
       </c>
@@ -4298,18 +4334,18 @@
         <v>352</v>
       </c>
       <c r="C19" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>99998</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C20" t="s">
         <v>652</v>
-      </c>
-      <c r="C20" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4331,12 +4367,12 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4347,7 +4383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -4358,7 +4394,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -4369,7 +4405,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -4380,7 +4416,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4391,7 +4427,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4402,7 +4438,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4413,7 +4449,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4424,7 +4460,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4435,7 +4471,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4446,7 +4482,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4457,7 +4493,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4468,7 +4504,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>99999</v>
       </c>
@@ -4479,15 +4515,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>99998</v>
       </c>
       <c r="B14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C14" t="s">
         <v>652</v>
-      </c>
-      <c r="C14" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4509,12 +4545,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4525,7 +4561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4536,7 +4572,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4547,7 +4583,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4558,7 +4594,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4569,7 +4605,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4577,10 +4613,10 @@
         <v>350</v>
       </c>
       <c r="C6" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -4591,7 +4627,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4602,7 +4638,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4613,7 +4649,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99999</v>
       </c>
@@ -4624,15 +4660,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>99998</v>
       </c>
       <c r="B11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C11" t="s">
         <v>652</v>
-      </c>
-      <c r="C11" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4654,12 +4690,12 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="44.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4670,7 +4706,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4678,10 +4714,10 @@
         <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4692,7 +4728,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4703,7 +4739,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4714,7 +4750,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4725,7 +4761,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4736,7 +4772,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4747,7 +4783,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4758,7 +4794,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4769,7 +4805,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4780,7 +4816,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4791,7 +4827,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>99999</v>
       </c>
@@ -4802,15 +4838,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>99998</v>
       </c>
       <c r="B14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C14" t="s">
         <v>652</v>
-      </c>
-      <c r="C14" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4832,12 +4868,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4848,7 +4884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4859,7 +4895,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4870,7 +4906,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4881,7 +4917,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4892,7 +4928,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4903,7 +4939,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4914,7 +4950,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4925,26 +4961,26 @@
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>99999</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99998</v>
       </c>
       <c r="B10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" t="s">
         <v>652</v>
-      </c>
-      <c r="C10" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4966,9 +5002,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -4979,7 +5015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4987,10 +5023,10 @@
         <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4998,10 +5034,10 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99999</v>
       </c>
@@ -5012,15 +5048,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" t="s">
         <v>652</v>
-      </c>
-      <c r="C5" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5042,12 +5078,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5058,7 +5094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5069,7 +5105,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5080,7 +5116,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5091,7 +5127,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5102,7 +5138,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5113,7 +5149,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99999</v>
       </c>
@@ -5124,15 +5160,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>99998</v>
       </c>
       <c r="B8" t="s">
+        <v>651</v>
+      </c>
+      <c r="C8" t="s">
         <v>652</v>
-      </c>
-      <c r="C8" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5157,12 +5193,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -5173,7 +5209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5184,7 +5220,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5195,7 +5231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5206,7 +5242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5217,7 +5253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5228,26 +5264,26 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99999</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>99998</v>
       </c>
       <c r="B8" t="s">
+        <v>651</v>
+      </c>
+      <c r="C8" t="s">
         <v>652</v>
-      </c>
-      <c r="C8" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5269,9 +5305,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5282,7 +5318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5293,7 +5329,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5304,7 +5340,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99999</v>
       </c>
@@ -5315,15 +5351,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" t="s">
         <v>652</v>
-      </c>
-      <c r="C5" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5345,9 +5381,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5358,7 +5394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5369,7 +5405,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5380,7 +5416,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99999</v>
       </c>
@@ -5391,15 +5427,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" t="s">
         <v>652</v>
-      </c>
-      <c r="C5" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5421,12 +5457,12 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="46.1640625" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5437,7 +5473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5448,7 +5484,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5459,7 +5495,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5470,7 +5506,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5481,7 +5517,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5492,7 +5528,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5503,7 +5539,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5511,10 +5547,10 @@
         <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5525,7 +5561,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5536,7 +5572,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5547,7 +5583,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30</v>
       </c>
@@ -5558,7 +5594,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31</v>
       </c>
@@ -5569,7 +5605,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32</v>
       </c>
@@ -5580,7 +5616,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>33</v>
       </c>
@@ -5591,7 +5627,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>34</v>
       </c>
@@ -5602,7 +5638,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20</v>
       </c>
@@ -5613,7 +5649,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>21</v>
       </c>
@@ -5624,7 +5660,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>99999</v>
       </c>
@@ -5635,15 +5671,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>99998</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C20" t="s">
         <v>652</v>
-      </c>
-      <c r="C20" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5665,12 +5701,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5681,7 +5717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5692,7 +5728,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5703,7 +5739,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5714,7 +5750,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5725,7 +5761,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5736,7 +5772,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5747,7 +5783,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5758,23 +5794,23 @@
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>99998</v>
       </c>
       <c r="B9" t="s">
+        <v>651</v>
+      </c>
+      <c r="C9" t="s">
         <v>652</v>
       </c>
-      <c r="C9" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99999</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C10" t="s">
         <v>274</v>
@@ -5799,12 +5835,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5815,7 +5851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -5823,10 +5859,10 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -5834,10 +5870,10 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -5845,10 +5881,10 @@
         <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5856,10 +5892,10 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5870,7 +5906,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5878,10 +5914,10 @@
         <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5889,10 +5925,10 @@
         <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5900,26 +5936,26 @@
         <v>255</v>
       </c>
       <c r="C9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99998</v>
       </c>
       <c r="B10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" t="s">
         <v>652</v>
       </c>
-      <c r="C10" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>99999</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C11" t="s">
         <v>274</v>
@@ -5944,12 +5980,12 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5960,7 +5996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5971,7 +6007,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5982,7 +6018,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5993,7 +6029,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6001,10 +6037,10 @@
         <v>461</v>
       </c>
       <c r="C5" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6015,7 +6051,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6026,7 +6062,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6037,7 +6073,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6048,7 +6084,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6059,7 +6095,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6070,7 +6106,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6078,10 +6114,10 @@
         <v>468</v>
       </c>
       <c r="C12" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6092,7 +6128,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6103,7 +6139,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6114,7 +6150,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6125,7 +6161,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6136,7 +6172,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6147,7 +6183,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6158,7 +6194,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6169,7 +6205,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6180,7 +6216,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6191,7 +6227,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6202,7 +6238,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6213,7 +6249,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6224,7 +6260,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6235,7 +6271,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>99999</v>
       </c>
@@ -6246,15 +6282,15 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>99998</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -6275,16 +6311,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6295,7 +6331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6306,7 +6342,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6317,7 +6353,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6328,23 +6364,23 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>99998</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" t="s">
         <v>652</v>
       </c>
-      <c r="C5" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>99999</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C6" t="s">
         <v>274</v>
@@ -6369,12 +6405,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6385,7 +6421,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6396,7 +6432,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6407,7 +6443,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -6418,15 +6454,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" t="s">
         <v>652</v>
-      </c>
-      <c r="C5" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -6448,12 +6484,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="60.1640625" customWidth="1"/>
+    <col min="3" max="3" width="60.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6464,7 +6500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6475,7 +6511,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>110</v>
       </c>
@@ -6486,7 +6522,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>120</v>
       </c>
@@ -6497,7 +6533,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>130</v>
       </c>
@@ -6508,7 +6544,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>140</v>
       </c>
@@ -6519,7 +6555,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>150</v>
       </c>
@@ -6530,7 +6566,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>200</v>
       </c>
@@ -6538,10 +6574,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>300</v>
       </c>
@@ -6552,18 +6588,18 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99998</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" t="s">
         <v>652</v>
       </c>
-      <c r="C10" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>99999</v>
       </c>
@@ -6593,12 +6629,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6609,7 +6645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6620,7 +6656,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6631,18 +6667,18 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99998</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C4" t="s">
         <v>652</v>
       </c>
-      <c r="C4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99999</v>
       </c>
@@ -6669,15 +6705,15 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6688,7 +6724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6699,7 +6735,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6707,10 +6743,10 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6718,10 +6754,10 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6729,10 +6765,10 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6740,10 +6776,10 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6754,26 +6790,26 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>99999</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>99998</v>
       </c>
       <c r="B9" t="s">
+        <v>651</v>
+      </c>
+      <c r="C9" t="s">
         <v>652</v>
-      </c>
-      <c r="C9" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -6792,16 +6828,16 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6812,122 +6848,122 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C6" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C8" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C10" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>99998</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>99999</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C12" t="s">
         <v>274</v>
@@ -6943,25 +6979,98 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99998</v>
+      </c>
+      <c r="B4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>99999</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="3" width="59.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="3"/>
+    <col min="3" max="3" width="59.125" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="37.625" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6981,10 +7090,10 @@
         <v>508</v>
       </c>
       <c r="G1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>91</v>
       </c>
@@ -6992,7 +7101,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D2" t="s">
         <v>494</v>
@@ -7001,13 +7110,13 @@
         <v>496</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>92</v>
       </c>
@@ -7015,7 +7124,7 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>494</v>
@@ -7024,13 +7133,13 @@
         <v>273</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>93</v>
       </c>
@@ -7038,7 +7147,7 @@
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>494</v>
@@ -7047,13 +7156,13 @@
         <v>273</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -7073,10 +7182,10 @@
         <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>120</v>
       </c>
@@ -7096,10 +7205,10 @@
         <v>56</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>131</v>
       </c>
@@ -7119,10 +7228,10 @@
         <v>509</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>132</v>
       </c>
@@ -7142,10 +7251,10 @@
         <v>509</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>133</v>
       </c>
@@ -7165,10 +7274,10 @@
         <v>509</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>200</v>
       </c>
@@ -7188,10 +7297,10 @@
         <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>210</v>
       </c>
@@ -7211,10 +7320,10 @@
         <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>220</v>
       </c>
@@ -7234,10 +7343,10 @@
         <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>231</v>
       </c>
@@ -7257,10 +7366,10 @@
         <v>510</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>232</v>
       </c>
@@ -7280,10 +7389,10 @@
         <v>510</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>233</v>
       </c>
@@ -7303,10 +7412,10 @@
         <v>510</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>234</v>
       </c>
@@ -7326,10 +7435,10 @@
         <v>510</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>235</v>
       </c>
@@ -7349,10 +7458,10 @@
         <v>510</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>236</v>
       </c>
@@ -7372,10 +7481,10 @@
         <v>510</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>237</v>
       </c>
@@ -7395,10 +7504,10 @@
         <v>510</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>238</v>
       </c>
@@ -7418,10 +7527,10 @@
         <v>510</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>240</v>
       </c>
@@ -7441,10 +7550,10 @@
         <v>82</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>250</v>
       </c>
@@ -7464,10 +7573,10 @@
         <v>83</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>261</v>
       </c>
@@ -7487,10 +7596,10 @@
         <v>511</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>262</v>
       </c>
@@ -7510,10 +7619,10 @@
         <v>511</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>263</v>
       </c>
@@ -7533,10 +7642,10 @@
         <v>511</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>264</v>
       </c>
@@ -7556,10 +7665,10 @@
         <v>511</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>265</v>
       </c>
@@ -7579,10 +7688,10 @@
         <v>511</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>270</v>
       </c>
@@ -7602,10 +7711,10 @@
         <v>94</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>290</v>
       </c>
@@ -7625,10 +7734,10 @@
         <v>95</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>351</v>
       </c>
@@ -7648,10 +7757,10 @@
         <v>512</v>
       </c>
       <c r="G30" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>352</v>
       </c>
@@ -7671,10 +7780,10 @@
         <v>512</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>370</v>
       </c>
@@ -7694,10 +7803,10 @@
         <v>100</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>391</v>
       </c>
@@ -7717,10 +7826,10 @@
         <v>513</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>392</v>
       </c>
@@ -7740,10 +7849,10 @@
         <v>513</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>393</v>
       </c>
@@ -7763,10 +7872,10 @@
         <v>513</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>394</v>
       </c>
@@ -7786,10 +7895,10 @@
         <v>513</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>401</v>
       </c>
@@ -7809,10 +7918,10 @@
         <v>514</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>402</v>
       </c>
@@ -7832,10 +7941,10 @@
         <v>514</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>510</v>
       </c>
@@ -7855,10 +7964,10 @@
         <v>113</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>111</v>
       </c>
@@ -7878,10 +7987,10 @@
         <v>515</v>
       </c>
       <c r="G40" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>112</v>
       </c>
@@ -7901,10 +8010,10 @@
         <v>515</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>113</v>
       </c>
@@ -7924,10 +8033,10 @@
         <v>515</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>114</v>
       </c>
@@ -7947,10 +8056,10 @@
         <v>515</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>280</v>
       </c>
@@ -7970,10 +8079,10 @@
         <v>122</v>
       </c>
       <c r="G44" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>361</v>
       </c>
@@ -7993,10 +8102,10 @@
         <v>516</v>
       </c>
       <c r="G45" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>362</v>
       </c>
@@ -8016,10 +8125,10 @@
         <v>516</v>
       </c>
       <c r="G46" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>520</v>
       </c>
@@ -8039,10 +8148,10 @@
         <v>127</v>
       </c>
       <c r="G47" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>901</v>
       </c>
@@ -8059,13 +8168,13 @@
         <v>273</v>
       </c>
       <c r="F48" t="s">
-        <v>518</v>
+        <v>658</v>
       </c>
       <c r="G48" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>902</v>
       </c>
@@ -8082,13 +8191,13 @@
         <v>273</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G49" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>903</v>
       </c>
@@ -8105,13 +8214,13 @@
         <v>273</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>904</v>
       </c>
@@ -8128,13 +8237,13 @@
         <v>273</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>905</v>
       </c>
@@ -8151,13 +8260,13 @@
         <v>273</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>906</v>
       </c>
@@ -8174,13 +8283,13 @@
         <v>273</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>907</v>
       </c>
@@ -8197,13 +8306,13 @@
         <v>273</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>908</v>
       </c>
@@ -8220,13 +8329,13 @@
         <v>273</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>909</v>
       </c>
@@ -8243,13 +8352,13 @@
         <v>273</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>518</v>
+        <v>660</v>
       </c>
       <c r="G56" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>910</v>
       </c>
@@ -8266,13 +8375,13 @@
         <v>273</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G57" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>990</v>
       </c>
@@ -8289,13 +8398,13 @@
         <v>273</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>518</v>
+        <v>661</v>
       </c>
       <c r="G58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>701</v>
       </c>
@@ -8312,13 +8421,13 @@
         <v>273</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G59" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>702</v>
       </c>
@@ -8335,13 +8444,13 @@
         <v>273</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>518</v>
+        <v>662</v>
       </c>
       <c r="G60" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>403</v>
       </c>
@@ -8358,13 +8467,13 @@
         <v>273</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>514</v>
+        <v>663</v>
       </c>
       <c r="G61" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>641</v>
       </c>
@@ -8375,7 +8484,7 @@
         <v>485</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>273</v>
@@ -8384,10 +8493,10 @@
         <v>517</v>
       </c>
       <c r="G62" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>642</v>
       </c>
@@ -8398,7 +8507,7 @@
         <v>487</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>273</v>
@@ -8407,15 +8516,15 @@
         <v>517</v>
       </c>
       <c r="G63" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>99999</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C64" t="s">
         <v>274</v>
@@ -8433,27 +8542,27 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>99998</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C65" t="s">
         <v>652</v>
       </c>
-      <c r="C65" t="s">
-        <v>653</v>
-      </c>
       <c r="D65" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E65" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F65" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G65" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -8475,15 +8584,15 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -8494,7 +8603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8505,7 +8614,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8516,7 +8625,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8527,7 +8636,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8538,26 +8647,26 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>99999</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99998</v>
       </c>
       <c r="B7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C7" t="s">
         <v>652</v>
-      </c>
-      <c r="C7" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -8579,13 +8688,13 @@
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="8.875" style="3"/>
     <col min="3" max="3" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -8596,7 +8705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8607,7 +8716,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8618,7 +8727,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8629,7 +8738,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8640,7 +8749,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8651,7 +8760,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8662,7 +8771,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8673,7 +8782,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8684,7 +8793,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8695,7 +8804,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8706,7 +8815,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8717,7 +8826,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8728,7 +8837,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8739,7 +8848,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8750,7 +8859,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8761,7 +8870,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8772,7 +8881,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8783,7 +8892,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8791,10 +8900,10 @@
         <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8805,7 +8914,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8816,7 +8925,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8827,7 +8936,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8838,7 +8947,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8849,7 +8958,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8860,7 +8969,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8871,7 +8980,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>37</v>
       </c>
@@ -8882,7 +8991,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>38</v>
       </c>
@@ -8893,7 +9002,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>39</v>
       </c>
@@ -8904,7 +9013,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40</v>
       </c>
@@ -8915,7 +9024,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>41</v>
       </c>
@@ -8926,7 +9035,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>42</v>
       </c>
@@ -8937,7 +9046,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44</v>
       </c>
@@ -8948,7 +9057,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>45</v>
       </c>
@@ -8959,7 +9068,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>46</v>
       </c>
@@ -8970,7 +9079,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>47</v>
       </c>
@@ -8981,7 +9090,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>48</v>
       </c>
@@ -8992,7 +9101,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1">
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>49</v>
       </c>
@@ -9003,7 +9112,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50</v>
       </c>
@@ -9014,7 +9123,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>51</v>
       </c>
@@ -9025,7 +9134,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1">
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>52</v>
       </c>
@@ -9036,7 +9145,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>53</v>
       </c>
@@ -9047,7 +9156,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>54</v>
       </c>
@@ -9058,7 +9167,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1">
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>55</v>
       </c>
@@ -9069,7 +9178,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>56</v>
       </c>
@@ -9080,7 +9189,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>57</v>
       </c>
@@ -9091,7 +9200,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>99999</v>
       </c>
@@ -9102,15 +9211,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>99998</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C48" t="s">
         <v>652</v>
-      </c>
-      <c r="C48" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -9132,12 +9241,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -9148,7 +9257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9159,7 +9268,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9170,26 +9279,26 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99999</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" t="s">
         <v>652</v>
-      </c>
-      <c r="C5" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -9211,12 +9320,12 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -9227,7 +9336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9238,7 +9347,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9246,10 +9355,10 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9260,7 +9369,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9271,7 +9380,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -9282,7 +9391,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -9293,7 +9402,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -9304,7 +9413,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -9315,7 +9424,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -9326,7 +9435,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -9334,10 +9443,10 @@
         <v>258</v>
       </c>
       <c r="C11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -9345,29 +9454,29 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>99999</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>99998</v>
       </c>
       <c r="B14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C14" t="s">
         <v>652</v>
-      </c>
-      <c r="C14" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -9389,12 +9498,12 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -9405,7 +9514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>110</v>
       </c>
@@ -9416,7 +9525,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>120</v>
       </c>
@@ -9427,7 +9536,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>130</v>
       </c>
@@ -9438,7 +9547,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>140</v>
       </c>
@@ -9449,7 +9558,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -9460,7 +9569,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200</v>
       </c>
@@ -9471,7 +9580,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>300</v>
       </c>
@@ -9482,7 +9591,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>350</v>
       </c>
@@ -9493,7 +9602,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>400</v>
       </c>
@@ -9504,7 +9613,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>500</v>
       </c>
@@ -9515,7 +9624,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>600</v>
       </c>
@@ -9526,7 +9635,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>650</v>
       </c>
@@ -9537,7 +9646,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>700</v>
       </c>
@@ -9548,7 +9657,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>850</v>
       </c>
@@ -9559,7 +9668,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>900</v>
       </c>
@@ -9570,7 +9679,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>99999</v>
       </c>
@@ -9581,15 +9690,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>99998</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C18" t="s">
         <v>652</v>
-      </c>
-      <c r="C18" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
